--- a/003/Table3.xlsx
+++ b/003/Table3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Documents\GitHub\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\003\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="範例1_1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,46 +187,6 @@
     <t>M1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>J1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -312,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -415,50 +375,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,72 +422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:BA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -1492,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L4:CL29"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BD53" sqref="BD53"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ40" sqref="AQ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1504,12 +1361,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -1587,10 +1444,10 @@
       <c r="CL4" s="9"/>
     </row>
     <row r="5" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1668,61 +1525,51 @@
       <c r="CL5" s="9"/>
     </row>
     <row r="6" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="32"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
-      <c r="AG6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="23"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
-      <c r="AR6" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS6" s="34"/>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="34"/>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC6" s="25"/>
-      <c r="BD6" s="26"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
       <c r="BE6" s="9"/>
       <c r="BF6" s="9"/>
       <c r="BG6" s="9"/>
@@ -1734,18 +1581,16 @@
       <c r="BM6" s="9"/>
       <c r="BN6" s="9"/>
       <c r="BO6" s="9"/>
-      <c r="BP6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="BQ6" s="19"/>
-      <c r="BR6" s="19"/>
-      <c r="BS6" s="19"/>
-      <c r="BT6" s="19"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="20"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
       <c r="BZ6" s="9"/>
       <c r="CA6" s="9"/>
       <c r="CB6" s="9"/>
@@ -1761,10 +1606,10 @@
       <c r="CL6" s="9"/>
     </row>
     <row r="7" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="44"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
       <c r="P7" s="9">
         <v>1</v>
       </c>
@@ -1992,12 +1837,12 @@
       </c>
     </row>
     <row r="8" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -2075,10 +1920,10 @@
       <c r="CL8" s="9"/>
     </row>
     <row r="9" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -2156,50 +2001,38 @@
       <c r="CL9" s="9"/>
     </row>
     <row r="10" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="32"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
-      <c r="AN10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="17" t="s">
-        <v>44</v>
-      </c>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
@@ -2249,10 +2082,10 @@
       <c r="CL10" s="9"/>
     </row>
     <row r="11" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="9">
         <v>1</v>
       </c>
@@ -2480,12 +2313,12 @@
       </c>
     </row>
     <row r="12" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2563,10 +2396,10 @@
       <c r="CL12" s="9"/>
     </row>
     <row r="13" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L13" s="39"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="41"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2644,49 +2477,39 @@
       <c r="CL13" s="9"/>
     </row>
     <row r="14" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="20"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
       <c r="AU14" s="9"/>
@@ -2704,9 +2527,7 @@
       <c r="BG14" s="9"/>
       <c r="BH14" s="9"/>
       <c r="BI14" s="9"/>
-      <c r="BJ14" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="BJ14" s="9"/>
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
@@ -2737,10 +2558,10 @@
       <c r="CL14" s="9"/>
     </row>
     <row r="15" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L15" s="42"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="9">
         <v>1</v>
       </c>
@@ -2968,12 +2789,12 @@
       </c>
     </row>
     <row r="16" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -3051,10 +2872,10 @@
       <c r="CL16" s="9"/>
     </row>
     <row r="17" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -3132,21 +2953,19 @@
       <c r="CL17" s="9"/>
     </row>
     <row r="18" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="23"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -3154,25 +2973,19 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="32"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
       <c r="AU18" s="9"/>
@@ -3185,9 +2998,7 @@
       <c r="BB18" s="9"/>
       <c r="BC18" s="9"/>
       <c r="BD18" s="9"/>
-      <c r="BE18" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="BE18" s="9"/>
       <c r="BF18" s="9"/>
       <c r="BG18" s="9"/>
       <c r="BH18" s="9"/>
@@ -3208,12 +3019,10 @@
       <c r="BW18" s="9"/>
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
-      <c r="BZ18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="CA18" s="19"/>
-      <c r="CB18" s="19"/>
-      <c r="CC18" s="20"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
       <c r="CD18" s="9"/>
       <c r="CE18" s="9"/>
       <c r="CF18" s="9"/>
@@ -3225,10 +3034,10 @@
       <c r="CL18" s="9"/>
     </row>
     <row r="19" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="44"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
       <c r="P19" s="9">
         <v>1</v>
       </c>
@@ -3456,12 +3265,12 @@
       </c>
     </row>
     <row r="20" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -3539,10 +3348,10 @@
       <c r="CL20" s="9"/>
     </row>
     <row r="21" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -3620,10 +3429,10 @@
       <c r="CL21" s="9"/>
     </row>
     <row r="22" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L22" s="39"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3651,58 +3460,46 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="19"/>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="19"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG22" s="34"/>
-      <c r="BH22" s="34"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="BK22" s="31"/>
-      <c r="BL22" s="31"/>
-      <c r="BM22" s="31"/>
-      <c r="BN22" s="31"/>
-      <c r="BO22" s="32"/>
-      <c r="BP22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="BQ22" s="28"/>
-      <c r="BR22" s="28"/>
-      <c r="BS22" s="28"/>
-      <c r="BT22" s="28"/>
-      <c r="BU22" s="28"/>
-      <c r="BV22" s="28"/>
-      <c r="BW22" s="29"/>
-      <c r="BX22" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY22" s="22"/>
-      <c r="BZ22" s="22"/>
-      <c r="CA22" s="22"/>
-      <c r="CB22" s="22"/>
-      <c r="CC22" s="22"/>
-      <c r="CD22" s="23"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="9"/>
+      <c r="CA22" s="9"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="9"/>
       <c r="CE22" s="9"/>
       <c r="CF22" s="9"/>
       <c r="CG22" s="9"/>
@@ -3713,10 +3510,10 @@
       <c r="CL22" s="9"/>
     </row>
     <row r="23" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L23" s="42"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
       <c r="P23" s="9">
         <v>1</v>
       </c>
@@ -3944,12 +3741,12 @@
       </c>
     </row>
     <row r="24" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -4027,10 +3824,10 @@
       <c r="CL24" s="9"/>
     </row>
     <row r="25" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="41"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -4108,10 +3905,10 @@
       <c r="CL25" s="9"/>
     </row>
     <row r="26" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L26" s="39"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -4121,59 +3918,49 @@
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
-      <c r="Y26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="23"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
-      <c r="AI26" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="35"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
-      <c r="AS26" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="26"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
       <c r="AZ26" s="9"/>
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
       <c r="BC26" s="9"/>
       <c r="BD26" s="9"/>
       <c r="BE26" s="9"/>
-      <c r="BF26" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG26" s="19"/>
-      <c r="BH26" s="19"/>
-      <c r="BI26" s="19"/>
-      <c r="BJ26" s="19"/>
-      <c r="BK26" s="19"/>
-      <c r="BL26" s="19"/>
-      <c r="BM26" s="19"/>
-      <c r="BN26" s="19"/>
-      <c r="BO26" s="20"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
       <c r="BP26" s="9"/>
       <c r="BQ26" s="9"/>
       <c r="BR26" s="9"/>
@@ -4182,17 +3969,15 @@
       <c r="BU26" s="9"/>
       <c r="BV26" s="9"/>
       <c r="BW26" s="9"/>
-      <c r="BX26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY26" s="28"/>
-      <c r="BZ26" s="28"/>
-      <c r="CA26" s="28"/>
-      <c r="CB26" s="28"/>
-      <c r="CC26" s="28"/>
-      <c r="CD26" s="28"/>
-      <c r="CE26" s="28"/>
-      <c r="CF26" s="29"/>
+      <c r="BX26" s="9"/>
+      <c r="BY26" s="9"/>
+      <c r="BZ26" s="9"/>
+      <c r="CA26" s="9"/>
+      <c r="CB26" s="9"/>
+      <c r="CC26" s="9"/>
+      <c r="CD26" s="9"/>
+      <c r="CE26" s="9"/>
+      <c r="CF26" s="9"/>
       <c r="CG26" s="9"/>
       <c r="CH26" s="9"/>
       <c r="CI26" s="9"/>
@@ -4201,10 +3986,10 @@
       <c r="CL26" s="9"/>
     </row>
     <row r="27" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L27" s="42"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
       <c r="P27" s="9">
         <v>1</v>
       </c>
@@ -4432,39 +4217,42 @@
       </c>
     </row>
     <row r="29" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="Q29" s="47" t="s">
+      <c r="Q29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="48" t="s">
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="49" t="s">
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="50" t="s">
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="45" t="s">
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="46" t="s">
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="12">
+    <mergeCell ref="L4:O7"/>
+    <mergeCell ref="L8:O11"/>
+    <mergeCell ref="L12:O15"/>
     <mergeCell ref="L16:O19"/>
     <mergeCell ref="L20:O23"/>
     <mergeCell ref="AC29:AE29"/>
@@ -4474,41 +4262,6 @@
     <mergeCell ref="T29:V29"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="L4:O7"/>
-    <mergeCell ref="L8:O11"/>
-    <mergeCell ref="L12:O15"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AK10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="U10:AB10"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="AQ22:AU22"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="AL18:AR18"/>
-    <mergeCell ref="AG6:AO6"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="AV26:AY26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AV22:BE22"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AI26:AQ26"/>
-    <mergeCell ref="BF26:BO26"/>
-    <mergeCell ref="BX22:CD22"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="BP6:BY6"/>
-    <mergeCell ref="BZ18:CC18"/>
-    <mergeCell ref="BX26:CF26"/>
-    <mergeCell ref="BF22:BI22"/>
-    <mergeCell ref="BJ22:BO22"/>
-    <mergeCell ref="BP22:BW22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/003/Table3.xlsx
+++ b/003/Table3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,42 @@
     <t>M1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -272,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -375,13 +411,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +497,18 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,6 +552,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L4:CL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AQ40" sqref="AQ40"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BM38" sqref="BM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1361,12 +1500,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -1444,10 +1583,10 @@
       <c r="CL4" s="9"/>
     </row>
     <row r="5" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1525,23 +1664,27 @@
       <c r="CL5" s="9"/>
     </row>
     <row r="6" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="Q6" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="37"/>
+      <c r="S6" s="38"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
+      <c r="X6" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="41"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
@@ -1560,38 +1703,46 @@
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="9"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9"/>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
+      <c r="AU6" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="50"/>
+      <c r="AX6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="34"/>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="35"/>
+      <c r="BH6" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI6" s="46"/>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="46"/>
+      <c r="BM6" s="46"/>
+      <c r="BN6" s="46"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="47"/>
+      <c r="BQ6" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR6" s="43"/>
+      <c r="BS6" s="43"/>
+      <c r="BT6" s="43"/>
+      <c r="BU6" s="43"/>
+      <c r="BV6" s="43"/>
+      <c r="BW6" s="43"/>
+      <c r="BX6" s="43"/>
+      <c r="BY6" s="43"/>
+      <c r="BZ6" s="44"/>
       <c r="CA6" s="9"/>
       <c r="CB6" s="9"/>
       <c r="CC6" s="9"/>
@@ -1606,10 +1757,10 @@
       <c r="CL6" s="9"/>
     </row>
     <row r="7" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="9">
         <v>1</v>
       </c>
@@ -1837,12 +1988,12 @@
       </c>
     </row>
     <row r="8" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -1920,10 +2071,10 @@
       <c r="CL8" s="9"/>
     </row>
     <row r="9" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -2001,35 +2152,45 @@
       <c r="CL9" s="9"/>
     </row>
     <row r="10" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="38"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
@@ -2058,7 +2219,9 @@
       <c r="BN10" s="9"/>
       <c r="BO10" s="9"/>
       <c r="BP10" s="9"/>
-      <c r="BQ10" s="9"/>
+      <c r="BQ10" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="BR10" s="9"/>
       <c r="BS10" s="9"/>
       <c r="BT10" s="9"/>
@@ -2082,10 +2245,10 @@
       <c r="CL10" s="9"/>
     </row>
     <row r="11" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="9">
         <v>1</v>
       </c>
@@ -2313,12 +2476,12 @@
       </c>
     </row>
     <row r="12" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2396,10 +2559,10 @@
       <c r="CL12" s="9"/>
     </row>
     <row r="13" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2477,36 +2640,46 @@
       <c r="CL13" s="9"/>
     </row>
     <row r="14" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="47"/>
       <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
+      <c r="AF14" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="41"/>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
@@ -2529,7 +2702,9 @@
       <c r="BI14" s="9"/>
       <c r="BJ14" s="9"/>
       <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
+      <c r="BL14" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="BM14" s="9"/>
       <c r="BN14" s="9"/>
       <c r="BO14" s="9"/>
@@ -2558,10 +2733,10 @@
       <c r="CL14" s="9"/>
     </row>
     <row r="15" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
       <c r="P15" s="9">
         <v>1</v>
       </c>
@@ -2789,12 +2964,12 @@
       </c>
     </row>
     <row r="16" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -2872,10 +3047,10 @@
       <c r="CL16" s="9"/>
     </row>
     <row r="17" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -2953,16 +3128,18 @@
       <c r="CL17" s="9"/>
     </row>
     <row r="18" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="S18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -2972,10 +3149,12 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
+      <c r="AE18" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="47"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
@@ -2983,17 +3162,23 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9"/>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
+      <c r="AP18" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
       <c r="BC18" s="9"/>
@@ -3020,10 +3205,12 @@
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
       <c r="BZ18" s="9"/>
-      <c r="CA18" s="9"/>
-      <c r="CB18" s="9"/>
-      <c r="CC18" s="9"/>
-      <c r="CD18" s="9"/>
+      <c r="CA18" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="CB18" s="43"/>
+      <c r="CC18" s="43"/>
+      <c r="CD18" s="44"/>
       <c r="CE18" s="9"/>
       <c r="CF18" s="9"/>
       <c r="CG18" s="9"/>
@@ -3034,10 +3221,10 @@
       <c r="CL18" s="9"/>
     </row>
     <row r="19" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
       <c r="P19" s="9">
         <v>1</v>
       </c>
@@ -3265,12 +3452,12 @@
       </c>
     </row>
     <row r="20" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -3348,10 +3535,10 @@
       <c r="CL20" s="9"/>
     </row>
     <row r="21" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -3429,10 +3616,10 @@
       <c r="CL21" s="9"/>
     </row>
     <row r="22" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3452,48 +3639,60 @@
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
+      <c r="AI22" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="43"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="43"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="40"/>
+      <c r="BA22" s="40"/>
+      <c r="BB22" s="40"/>
+      <c r="BC22" s="40"/>
+      <c r="BD22" s="40"/>
+      <c r="BE22" s="41"/>
       <c r="BF22" s="9"/>
       <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
-      <c r="BO22" s="9"/>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="9"/>
-      <c r="BT22" s="9"/>
-      <c r="BU22" s="9"/>
-      <c r="BV22" s="9"/>
-      <c r="BW22" s="9"/>
-      <c r="BX22" s="9"/>
+      <c r="BH22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI22" s="34"/>
+      <c r="BJ22" s="34"/>
+      <c r="BK22" s="35"/>
+      <c r="BL22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM22" s="37"/>
+      <c r="BN22" s="37"/>
+      <c r="BO22" s="37"/>
+      <c r="BP22" s="37"/>
+      <c r="BQ22" s="38"/>
+      <c r="BR22" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="46"/>
+      <c r="BU22" s="46"/>
+      <c r="BV22" s="46"/>
+      <c r="BW22" s="46"/>
+      <c r="BX22" s="47"/>
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
       <c r="CA22" s="9"/>
@@ -3510,10 +3709,10 @@
       <c r="CL22" s="9"/>
     </row>
     <row r="23" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="26"/>
       <c r="P23" s="9">
         <v>1</v>
       </c>
@@ -3741,12 +3940,12 @@
       </c>
     </row>
     <row r="24" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -3824,10 +4023,10 @@
       <c r="CL24" s="9"/>
     </row>
     <row r="25" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="19"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -3905,66 +4104,78 @@
       <c r="CL25" s="9"/>
     </row>
     <row r="26" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
+      <c r="V26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="35"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
+      <c r="AI26" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="50"/>
       <c r="AU26" s="9"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
-      <c r="BG26" s="9"/>
-      <c r="BH26" s="9"/>
-      <c r="BI26" s="9"/>
-      <c r="BJ26" s="9"/>
-      <c r="BK26" s="9"/>
-      <c r="BL26" s="9"/>
-      <c r="BM26" s="9"/>
-      <c r="BN26" s="9"/>
-      <c r="BO26" s="9"/>
-      <c r="BP26" s="9"/>
-      <c r="BQ26" s="9"/>
-      <c r="BR26" s="9"/>
-      <c r="BS26" s="9"/>
+      <c r="AX26" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY26" s="43"/>
+      <c r="AZ26" s="43"/>
+      <c r="BA26" s="43"/>
+      <c r="BB26" s="43"/>
+      <c r="BC26" s="43"/>
+      <c r="BD26" s="43"/>
+      <c r="BE26" s="43"/>
+      <c r="BF26" s="43"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI26" s="37"/>
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL26" s="40"/>
+      <c r="BM26" s="40"/>
+      <c r="BN26" s="40"/>
+      <c r="BO26" s="40"/>
+      <c r="BP26" s="40"/>
+      <c r="BQ26" s="40"/>
+      <c r="BR26" s="40"/>
+      <c r="BS26" s="41"/>
       <c r="BT26" s="9"/>
       <c r="BU26" s="9"/>
       <c r="BV26" s="9"/>
@@ -3986,10 +4197,10 @@
       <c r="CL26" s="9"/>
     </row>
     <row r="27" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="9">
         <v>1</v>
       </c>
@@ -4217,42 +4428,74 @@
       </c>
     </row>
     <row r="29" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="26" t="s">
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="27" t="s">
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="28" t="s">
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="23" t="s">
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="24" t="s">
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="44">
+    <mergeCell ref="CA18:CD18"/>
+    <mergeCell ref="BH6:BP6"/>
+    <mergeCell ref="BR22:BX22"/>
+    <mergeCell ref="BQ6:BZ6"/>
+    <mergeCell ref="BL22:BQ22"/>
+    <mergeCell ref="BH22:BK22"/>
+    <mergeCell ref="AQ26:AT26"/>
+    <mergeCell ref="AP18:AR18"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="AN22:AW22"/>
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="AX26:BG26"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:BG6"/>
+    <mergeCell ref="AX22:BE22"/>
+    <mergeCell ref="BH26:BJ26"/>
+    <mergeCell ref="BK26:BS26"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="Q14:Y14"/>
+    <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="AI22:AM22"/>
+    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AK14:AO14"/>
+    <mergeCell ref="AI26:AP26"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V26:AD26"/>
+    <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="L4:O7"/>
     <mergeCell ref="L8:O11"/>
     <mergeCell ref="L12:O15"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:AE10"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="L16:O19"/>
     <mergeCell ref="L20:O23"/>
     <mergeCell ref="AC29:AE29"/>

--- a/003/Table3.xlsx
+++ b/003/Table3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,7 +220,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,115 +525,115 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1489,7 +1517,7 @@
   <dimension ref="L4:CL29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BM38" sqref="BM38"/>
+      <selection activeCell="L4" sqref="L4:CL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1500,12 +1528,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -1583,10 +1611,10 @@
       <c r="CL4" s="9"/>
     </row>
     <row r="5" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1664,85 +1692,85 @@
       <c r="CL5" s="9"/>
     </row>
     <row r="6" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="36" t="s">
+      <c r="Q6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="39" t="s">
+      <c r="X6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="41"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="35"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
+      <c r="AE6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="29"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
-      <c r="AU6" s="48" t="s">
+      <c r="AU6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="34"/>
-      <c r="BB6" s="34"/>
-      <c r="BC6" s="34"/>
-      <c r="BD6" s="34"/>
-      <c r="BE6" s="34"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="BI6" s="46"/>
-      <c r="BJ6" s="46"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="46"/>
-      <c r="BM6" s="46"/>
-      <c r="BN6" s="46"/>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="47"/>
-      <c r="BQ6" s="42" t="s">
+      <c r="AV6" s="31"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="43"/>
-      <c r="BS6" s="43"/>
-      <c r="BT6" s="43"/>
-      <c r="BU6" s="43"/>
-      <c r="BV6" s="43"/>
-      <c r="BW6" s="43"/>
-      <c r="BX6" s="43"/>
-      <c r="BY6" s="43"/>
-      <c r="BZ6" s="44"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="19"/>
+      <c r="BO6" s="19"/>
+      <c r="BP6" s="19"/>
+      <c r="BQ6" s="20"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
       <c r="CA6" s="9"/>
       <c r="CB6" s="9"/>
       <c r="CC6" s="9"/>
@@ -1757,10 +1785,10 @@
       <c r="CL6" s="9"/>
     </row>
     <row r="7" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
       <c r="P7" s="9">
         <v>1</v>
       </c>
@@ -1988,12 +2016,12 @@
       </c>
     </row>
     <row r="8" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -2071,10 +2099,10 @@
       <c r="CL8" s="9"/>
     </row>
     <row r="9" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -2152,45 +2180,45 @@
       <c r="CL9" s="9"/>
     </row>
     <row r="10" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="33" t="s">
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="39" t="s">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="42" t="s">
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="48" t="s">
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="36" t="s">
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="38"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="26"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
@@ -2209,7 +2237,9 @@
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
-      <c r="BG10" s="9"/>
+      <c r="BG10" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="BH10" s="9"/>
       <c r="BI10" s="9"/>
       <c r="BJ10" s="9"/>
@@ -2219,9 +2249,7 @@
       <c r="BN10" s="9"/>
       <c r="BO10" s="9"/>
       <c r="BP10" s="9"/>
-      <c r="BQ10" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="BQ10" s="9"/>
       <c r="BR10" s="9"/>
       <c r="BS10" s="9"/>
       <c r="BT10" s="9"/>
@@ -2245,10 +2273,10 @@
       <c r="CL10" s="9"/>
     </row>
     <row r="11" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="9">
         <v>1</v>
       </c>
@@ -2476,12 +2504,12 @@
       </c>
     </row>
     <row r="12" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2559,10 +2587,10 @@
       <c r="CL12" s="9"/>
     </row>
     <row r="13" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2640,46 +2668,46 @@
       <c r="CL13" s="9"/>
     </row>
     <row r="14" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="16" t="s">
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="48" t="s">
+      <c r="Q14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="45" t="s">
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="47"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="23"/>
       <c r="AE14" s="9"/>
-      <c r="AF14" s="42" t="s">
+      <c r="AF14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="39" t="s">
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="41"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="35"/>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
@@ -2700,11 +2728,11 @@
       <c r="BG14" s="9"/>
       <c r="BH14" s="9"/>
       <c r="BI14" s="9"/>
-      <c r="BJ14" s="9"/>
+      <c r="BJ14" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="BK14" s="9"/>
-      <c r="BL14" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
       <c r="BN14" s="9"/>
       <c r="BO14" s="9"/>
@@ -2733,10 +2761,10 @@
       <c r="CL14" s="9"/>
     </row>
     <row r="15" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="26"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="9">
         <v>1</v>
       </c>
@@ -2964,12 +2992,12 @@
       </c>
     </row>
     <row r="16" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -3047,10 +3075,10 @@
       <c r="CL16" s="9"/>
     </row>
     <row r="17" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="23"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -3128,18 +3156,18 @@
       <c r="CL17" s="9"/>
     </row>
     <row r="18" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="33" t="s">
+      <c r="S18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="29"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -3149,12 +3177,12 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
-      <c r="AE18" s="45" t="s">
+      <c r="AE18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="47"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="23"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
@@ -3162,22 +3190,22 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
-      <c r="AP18" s="39" t="s">
+      <c r="AP18" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AQ18" s="40"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="36" t="s">
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="14" t="s">
-        <v>41</v>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
@@ -3196,21 +3224,21 @@
       <c r="BO18" s="9"/>
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
-      <c r="BR18" s="9"/>
-      <c r="BS18" s="9"/>
-      <c r="BT18" s="9"/>
-      <c r="BU18" s="9"/>
+      <c r="BR18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS18" s="19"/>
+      <c r="BT18" s="19"/>
+      <c r="BU18" s="20"/>
       <c r="BV18" s="9"/>
       <c r="BW18" s="9"/>
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
       <c r="BZ18" s="9"/>
-      <c r="CA18" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="CB18" s="43"/>
-      <c r="CC18" s="43"/>
-      <c r="CD18" s="44"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
       <c r="CE18" s="9"/>
       <c r="CF18" s="9"/>
       <c r="CG18" s="9"/>
@@ -3221,10 +3249,10 @@
       <c r="CL18" s="9"/>
     </row>
     <row r="19" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
       <c r="P19" s="9">
         <v>1</v>
       </c>
@@ -3452,12 +3480,12 @@
       </c>
     </row>
     <row r="20" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -3535,10 +3563,10 @@
       <c r="CL20" s="9"/>
     </row>
     <row r="21" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L21" s="21"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="23"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -3616,10 +3644,10 @@
       <c r="CL21" s="9"/>
     </row>
     <row r="22" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="23"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3639,60 +3667,60 @@
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
-      <c r="AI22" s="48" t="s">
+      <c r="AI22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="49"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="42" t="s">
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="43"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="43"/>
-      <c r="AT22" s="43"/>
-      <c r="AU22" s="43"/>
-      <c r="AV22" s="43"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY22" s="40"/>
-      <c r="AZ22" s="40"/>
-      <c r="BA22" s="40"/>
-      <c r="BB22" s="40"/>
-      <c r="BC22" s="40"/>
-      <c r="BD22" s="40"/>
-      <c r="BE22" s="41"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI22" s="34"/>
-      <c r="BJ22" s="34"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM22" s="37"/>
-      <c r="BN22" s="37"/>
-      <c r="BO22" s="37"/>
-      <c r="BP22" s="37"/>
-      <c r="BQ22" s="38"/>
-      <c r="BR22" s="45" t="s">
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="BS22" s="46"/>
-      <c r="BT22" s="46"/>
-      <c r="BU22" s="46"/>
-      <c r="BV22" s="46"/>
-      <c r="BW22" s="46"/>
-      <c r="BX22" s="47"/>
+      <c r="AY22" s="34"/>
+      <c r="AZ22" s="34"/>
+      <c r="BA22" s="34"/>
+      <c r="BB22" s="34"/>
+      <c r="BC22" s="34"/>
+      <c r="BD22" s="34"/>
+      <c r="BE22" s="35"/>
+      <c r="BF22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="28"/>
+      <c r="BI22" s="29"/>
+      <c r="BJ22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK22" s="22"/>
+      <c r="BL22" s="22"/>
+      <c r="BM22" s="22"/>
+      <c r="BN22" s="22"/>
+      <c r="BO22" s="22"/>
+      <c r="BP22" s="23"/>
+      <c r="BQ22" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="BR22" s="25"/>
+      <c r="BS22" s="25"/>
+      <c r="BT22" s="25"/>
+      <c r="BU22" s="25"/>
+      <c r="BV22" s="26"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
       <c r="CA22" s="9"/>
@@ -3709,10 +3737,10 @@
       <c r="CL22" s="9"/>
     </row>
     <row r="23" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="26"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="9">
         <v>1</v>
       </c>
@@ -3940,12 +3968,12 @@
       </c>
     </row>
     <row r="24" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -4023,10 +4051,10 @@
       <c r="CL24" s="9"/>
     </row>
     <row r="25" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -4104,78 +4132,78 @@
       <c r="CL25" s="9"/>
     </row>
     <row r="26" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="23"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="33" t="s">
+      <c r="V26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="35"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="29"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
-      <c r="AI26" s="45" t="s">
+      <c r="AI26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="47"/>
-      <c r="AQ26" s="48" t="s">
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="50"/>
+      <c r="AR26" s="31"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="32"/>
       <c r="AU26" s="9"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
-      <c r="AX26" s="42" t="s">
+      <c r="AX26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AY26" s="43"/>
-      <c r="AZ26" s="43"/>
-      <c r="BA26" s="43"/>
-      <c r="BB26" s="43"/>
-      <c r="BC26" s="43"/>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="43"/>
-      <c r="BF26" s="43"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="BI26" s="37"/>
-      <c r="BJ26" s="38"/>
-      <c r="BK26" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="BL26" s="40"/>
-      <c r="BM26" s="40"/>
-      <c r="BN26" s="40"/>
-      <c r="BO26" s="40"/>
-      <c r="BP26" s="40"/>
-      <c r="BQ26" s="40"/>
-      <c r="BR26" s="40"/>
-      <c r="BS26" s="41"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19"/>
+      <c r="BF26" s="19"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL26" s="34"/>
+      <c r="BM26" s="34"/>
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="34"/>
+      <c r="BR26" s="34"/>
+      <c r="BS26" s="35"/>
       <c r="BT26" s="9"/>
       <c r="BU26" s="9"/>
       <c r="BV26" s="9"/>
@@ -4197,10 +4225,10 @@
       <c r="CL26" s="9"/>
     </row>
     <row r="27" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
       <c r="P27" s="9">
         <v>1</v>
       </c>
@@ -4428,64 +4456,46 @@
       </c>
     </row>
     <row r="29" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="Q29" s="29" t="s">
+      <c r="Q29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="30" t="s">
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="31" t="s">
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="32" t="s">
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="27" t="s">
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="28" t="s">
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="CA18:CD18"/>
-    <mergeCell ref="BH6:BP6"/>
-    <mergeCell ref="BR22:BX22"/>
-    <mergeCell ref="BQ6:BZ6"/>
-    <mergeCell ref="BL22:BQ22"/>
-    <mergeCell ref="BH22:BK22"/>
-    <mergeCell ref="AQ26:AT26"/>
-    <mergeCell ref="AP18:AR18"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="AN22:AW22"/>
-    <mergeCell ref="AS18:AY18"/>
-    <mergeCell ref="AX26:BG26"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:BG6"/>
-    <mergeCell ref="AX22:BE22"/>
-    <mergeCell ref="BH26:BJ26"/>
-    <mergeCell ref="BK26:BS26"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="Q14:Y14"/>
-    <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="AI22:AM22"/>
-    <mergeCell ref="AE18:AH18"/>
-    <mergeCell ref="AK14:AO14"/>
-    <mergeCell ref="AI26:AP26"/>
-    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="L24:O27"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
     <mergeCell ref="V26:AD26"/>
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="L4:O7"/>
@@ -4498,13 +4508,31 @@
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="L16:O19"/>
     <mergeCell ref="L20:O23"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="L24:O27"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AE6:AN6"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="Q14:Y14"/>
+    <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="AI22:AM22"/>
+    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AK14:AO14"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX22:BE22"/>
+    <mergeCell ref="BH26:BJ26"/>
+    <mergeCell ref="BK26:BS26"/>
+    <mergeCell ref="AX6:BF6"/>
+    <mergeCell ref="BF22:BI22"/>
+    <mergeCell ref="BJ22:BP22"/>
+    <mergeCell ref="BH6:BQ6"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="BR18:BU18"/>
+    <mergeCell ref="AQ26:AT26"/>
+    <mergeCell ref="AP18:AR18"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="AN22:AW22"/>
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="AX26:BG26"/>
+    <mergeCell ref="AI26:AP26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
